--- a/data/output_df.xlsx
+++ b/data/output_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,36 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Section_4_3_1.txt</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section_4_3_2.txt</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section_4_3_3.txt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Section_4_3_4.txt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Section_4_3_5.txt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Section_4_3_6.txt</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>reviews</t>
         </is>
       </c>
@@ -456,17 +486,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Program Administrators and Nursing Staff Members shall be able to specify the preferred sequence of classes for a given cohort.</t>
+          <t>The Disputes System shall provide view access capability for authorized users of the application.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The requirement includes the roles "Program Administrators" and "Nursing Staff Members", but does not specify what "preferred sequence of classes" means. It lacks clarity on how this preference is established or prioritized, leading to possible multiple interpretations of what these roles can specify. Recommendations include defining what constitutes a "preferred sequence" and how it will be determined to remove ambiguity.</t>
+          <t>The requirement is somewhat ambiguous regarding what constitutes "view access capability." It should specify the types of data or sections of the application that authorized users can view to eliminate any assumptions about the extent of access.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The requirement includes the roles "Program Administrators" and "Nursing Staff Members", but does not specify what "preferred sequence of classes" means. It lacks clarity on how this preference is established or prioritized, leading to possible multiple interpretations of what these roles can specify. Recommendations include defining what constitutes a "preferred sequence" and how it will be determined to remove ambiguity.</t>
+          <t>The grammar is correct; however, the term "access capability" may cause ambiguity. It would improve clarity to specify what "view access" entails, such as which data can be viewed or any constraints that might apply.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>The requirement is acceptable in spelling and capitalization; however, it could be improved by specifying what 'view access capability' entails. Defining 'authorized users' and providing clarity on what access details fall under 'view' would further enhance verifiability.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>The requirement is punctuated correctly, providing clarity. However, the phrase "view access capability" could be more specific by defining what "view access" entails. A glossary reference for "authorized users" should also be included to ensure clarity.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>The requirement is clear but does not utilize any logical expression; since it is a singular thought, it does not require improvement. No ambiguity is present.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>The requirement does not use the word not, so it is clear, verifiable, and aligns with the positive framing encouraged by the context. However, to enhance clarity, specify what "view access capability" entails.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>The requirement is acceptable as it does not use the oblique symbol. However, it could be improved by explicitly defining what constitutes "view access capability" to prevent ambiguity.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>The requirement is somewhat ambiguous regarding what constitutes "view access capability." It should specify the types of data or sections of the application that authorized users can view to eliminate any assumptions about the extent of access. The grammar is correct; however, the term "access capability" may cause ambiguity. It would improve clarity to specify what "view access" entails, such as which data can be viewed or any constraints that might apply. The requirement is acceptable in spelling and capitalization; however, it could be improved by specifying what 'view access capability' entails. Defining 'authorized users' and providing clarity on what access details fall under 'view' would further enhance verifiability. The requirement is punctuated correctly, providing clarity. However, the phrase "view access capability" could be more specific by defining what "view access" entails. A glossary reference for "authorized users" should also be included to ensure clarity. The requirement is clear but does not utilize any logical expression; since it is a singular thought, it does not require improvement. No ambiguity is present. The requirement does not use the word not, so it is clear, verifiable, and aligns with the positive framing encouraged by the context. However, to enhance clarity, specify what "view access capability" entails. The requirement is acceptable as it does not use the oblique symbol. However, it could be improved by explicitly defining what constitutes "view access capability" to prevent ambiguity.</t>
         </is>
       </c>
     </row>
@@ -476,17 +536,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The product shall allow a user to identify himself or herself as a player.</t>
+          <t>The Disputes System shall provide update access capability for authorized users of the application.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The phrase "identify himself or herself" is ambiguous as it does not clarify the method of identification. This could include username, email, or another identifier. Consider rephrasing to specify the identification method (e.g., "the product shall allow a user to enter a username or email to identify as a player") to enhance clarity and reduce ambiguity.</t>
+          <t>Similar to the previous requirement, the term "update access capability" is vague. The requirement should clearly define what types of updates users are permitted to make, e.g., updates to user profiles, dispute details, etc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The phrase "identify himself or herself" is ambiguous as it does not clarify the method of identification. This could include username, email, or another identifier. Consider rephrasing to specify the identification method (e.g., "the product shall allow a user to enter a username or email to identify as a player") to enhance clarity and reduce ambiguity.</t>
+          <t>The grammar is correct; similar to the previous requirement, "update access capability" is vague. It is recommended to clarify which updates can be made and under what conditions to prevent misinterpretation.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Similar to Requirement A, this requirement is free from spelling errors. It would benefit from clarification on what 'update access capability' includes and how 'authorized users' are defined for better validation.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Similar to Requirement A, the punctuation is correct. The phrase "update access capability" lacks specificity and could benefit from clear definitions. A glossary reference for "authorized users" should also be included.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Similar to Requirement A, this requirement is clear and singular. It does not incorporate logical expressions and does not need improvement as it does not present ambiguity.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>This requirement does not contain the word not and maintains a positive statement. To improve this requirement, consider defining the types of updates allowed for clarity and completeness.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Similar to the previous requirement, this one does not contain the oblique symbol. However, clarification on what "update access capability" includes would enhance precision.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Similar to the previous requirement, the term "update access capability" is vague. The requirement should clearly define what types of updates users are permitted to make, e.g., updates to user profiles, dispute details, etc. The grammar is correct; similar to the previous requirement, "update access capability" is vague. It is recommended to clarify which updates can be made and under what conditions to prevent misinterpretation. Similar to Requirement A, this requirement is free from spelling errors. It would benefit from clarification on what 'update access capability' includes and how 'authorized users' are defined for better validation. Similar to Requirement A, the punctuation is correct. The phrase "update access capability" lacks specificity and could benefit from clear definitions. A glossary reference for "authorized users" should also be included. Similar to Requirement A, this requirement is clear and singular. It does not incorporate logical expressions and does not need improvement as it does not present ambiguity. This requirement does not contain the word not and maintains a positive statement. To improve this requirement, consider defining the types of updates allowed for clarity and completeness. Similar to the previous requirement, this one does not contain the oblique symbol. However, clarification on what "update access capability" includes would enhance precision.</t>
         </is>
       </c>
     </row>
@@ -496,17 +586,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Disputes System shall provide view access capability for authorized users of the application.</t>
+          <t>The Disputes System must allow the users to select disputable transactions (based on the age of the transaction) from a user interface and initiate a dispute (ticket retrieval request or chargeback notification) on the selected transaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The term "view access capability" is not well-defined. It is unclear what constitutes "view access" (e.g., permissions for viewing documents, records, etc.). Recommend detailing what specific content is accessible and what "authorized users" entail to ensure a singular interpretation.</t>
+          <t>This requirement is complex and may be interpreted in multiple ways, particularly regarding "disputable transactions" and the mechanics of initiating a dispute. It should clarify the criteria for disputable transactions and detail the steps for initiating a dispute to avoid confusion on the necessary actions and features of the user interface.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The term "view access capability" is not well-defined. It is unclear what constitutes "view access" (e.g., permissions for viewing documents, records, etc.). Recommend detailing what specific content is accessible and what "authorized users" entail to ensure a singular interpretation.</t>
+          <t>The sentence structure is correct, but it is overly complex. Breaking it into two sentences for better readability is advisable. Additionally, defining “disputable transactions” and the exact meanings of "ticket retrieval request" and "chargeback notification" will enhance clarity.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The spelling is correct, but the phrase 'disputable transactions' could be specified better. The meaning of 'age of the transaction' should be clarified. Additionally, consider defining 'user interface' to ensure all stakeholders have a common understanding.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>This requirement contains multiple clauses that could benefit from improved punctuation for clarity. The use of parentheses is appropriate, but separating clauses with punctuation could help prevent confusion. Consider revising for clearer structure. Also, a definition for "disputable transactions" should be included.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>This requirement contains multiple thoughts connected by "and", which creates ambiguity. It could be improved by breaking it into two separate requirements or restructuring it to use logical expressions, for example, "The Disputes System must allow users to [select disputable transactions based on the age of the transaction] AND [initiate a dispute (ticket retrieval request or chargeback notification) on the selected transaction]".</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>This requirement is stated positively and allows for verification. However, the term "disputable transactions" could be better defined, and it may be beneficial to break this requirement into smaller, more manageable requirements for clarity and verifiability.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>This requirement includes the oblique symbol in "ticket retrieval request or chargeback notification," leading to ambiguity about what actions users can take. It would be beneficial to split this requirement into two separate ones to clarify user actions: one for initiating a ticket retrieval request and another for chargeback notification.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>This requirement is complex and may be interpreted in multiple ways, particularly regarding "disputable transactions" and the mechanics of initiating a dispute. It should clarify the criteria for disputable transactions and detail the steps for initiating a dispute to avoid confusion on the necessary actions and features of the user interface. The sentence structure is correct, but it is overly complex. Breaking it into two sentences for better readability is advisable. Additionally, defining “disputable transactions” and the exact meanings of "ticket retrieval request" and "chargeback notification" will enhance clarity. The spelling is correct, but the phrase 'disputable transactions' could be specified better. The meaning of 'age of the transaction' should be clarified. Additionally, consider defining 'user interface' to ensure all stakeholders have a common understanding. This requirement contains multiple clauses that could benefit from improved punctuation for clarity. The use of parentheses is appropriate, but separating clauses with punctuation could help prevent confusion. Consider revising for clearer structure. Also, a definition for "disputable transactions" should be included. This requirement contains multiple thoughts connected by "and", which creates ambiguity. It could be improved by breaking it into two separate requirements or restructuring it to use logical expressions, for example, "The Disputes System must allow users to [select disputable transactions based on the age of the transaction] AND [initiate a dispute (ticket retrieval request or chargeback notification) on the selected transaction]". This requirement is stated positively and allows for verification. However, the term "disputable transactions" could be better defined, and it may be beneficial to break this requirement into smaller, more manageable requirements for clarity and verifiability. This requirement includes the oblique symbol in "ticket retrieval request or chargeback notification," leading to ambiguity about what actions users can take. It would be beneficial to split this requirement into two separate ones to clarify user actions: one for initiating a ticket retrieval request and another for chargeback notification.</t>
         </is>
       </c>
     </row>
@@ -516,37 +636,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The ratings shall include categories for attempted use of recycled parts and actual use of recycled parts.</t>
+          <t>The Disputes System must provide the user the ability to initiate a single dispute case on multiple transactions that belong to a single merchant.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The terms "attempted use" and "actual use" may be interpreted differently by users. It is unclear what metrics or evidence will determine whether the use was "attempted" versus "actual". Suggestions for improvement include specifying criteria for categorization to eliminate confusion.</t>
+          <t>The phrase "multiple transactions that belong to a single merchant" could be misconstrued. Clarifying whether it refers to transactions grouped specifically by the merchant’s ID or other criteria would help eliminate ambiguity. A more precise definition would lead to clearer understanding and implementation.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The terms "attempted use" and "actual use" may be interpreted differently by users. It is unclear what metrics or evidence will determine whether the use was "attempted" versus "actual". Suggestions for improvement include specifying criteria for categorization to eliminate confusion.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Website shall allow customers to purchase pre-paid cards of $5  $10  or $20 value either by credit card or mail-in payment option.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The phrase "either by credit card or mail-in payment option" is slightly ambiguous as it does not specify if both options are available concurrently or if they are mutually exclusive. This could lead to confusion. It is advisable to clarify whether customers can use both payment methods or choose one to enhance understanding.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The phrase "either by credit card or mail-in payment option" is slightly ambiguous as it does not specify if both options are available concurrently or if they are mutually exclusive. This could lead to confusion. It is advisable to clarify whether customers can use both payment methods or choose one to enhance understanding.</t>
+          <t>The grammar is correct; however, the term "single dispute case" requires clarification. It is recommended to explicitly define what constitutes a single dispute and how it relates to multiple transactions to avoid ambiguity.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The spelling and capitalization are correct. However, the term 'single merchant' should be defined to clarify what conditions qualify a merchant as 'single'. Furthermore, additional context on how the 'dispute case' operates can improve understanding.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>While the punctuation is generally correct, the phrase "the user the ability to initiate" could be more clearly stated as "the ability for the user to initiate." Additionally, consideration should be given to defining "dispute case" and "single merchant" to avoid ambiguity.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>This requirement is singular and effectively communicates a clear need without the use of logical expressions. It does not require changes as it does not introduce ambiguity.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>This requirement is stated positively and avoids the use of not. Consider elaborating on what constitutes a "dispute case" and the limitations, if any, on the number of transactions to ensure clarity and verifiability.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>The requirement is clear and does not include the oblique symbol. However, it could be made more precise by defining what "multiple transactions" entails.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>The phrase "multiple transactions that belong to a single merchant" could be misconstrued. Clarifying whether it refers to transactions grouped specifically by the merchant’s ID or other criteria would help eliminate ambiguity. A more precise definition would lead to clearer understanding and implementation. The grammar is correct; however, the term "single dispute case" requires clarification. It is recommended to explicitly define what constitutes a single dispute and how it relates to multiple transactions to avoid ambiguity. The spelling and capitalization are correct. However, the term 'single merchant' should be defined to clarify what conditions qualify a merchant as 'single'. Furthermore, additional context on how the 'dispute case' operates can improve understanding. While the punctuation is generally correct, the phrase "the user the ability to initiate" could be more clearly stated as "the ability for the user to initiate." Additionally, consideration should be given to defining "dispute case" and "single merchant" to avoid ambiguity. This requirement is singular and effectively communicates a clear need without the use of logical expressions. It does not require changes as it does not introduce ambiguity. This requirement is stated positively and avoids the use of not. Consider elaborating on what constitutes a "dispute case" and the limitations, if any, on the number of transactions to ensure clarity and verifiability. The requirement is clear and does not include the oblique symbol. However, it could be made more precise by defining what "multiple transactions" entails.</t>
         </is>
       </c>
     </row>

--- a/data/output_df.xlsx
+++ b/data/output_df.xlsx
@@ -491,42 +491,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The requirement is somewhat ambiguous regarding what constitutes "view access capability." It should specify the types of data or sections of the application that authorized users can view to eliminate any assumptions about the extent of access.</t>
+          <t>The term 'view access capability' may be ambiguous. It would benefit from specifying the exact nature of access (e.g., read-only access, access to specific data elements). Additionally, the phrase 'authorized users' should be clearly defined to avoid varied interpretations regarding who qualifies as 'authorized'.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The grammar is correct; however, the term "access capability" may cause ambiguity. It would improve clarity to specify what "view access" entails, such as which data can be viewed or any constraints that might apply.</t>
+          <t>The requirement uses correct grammar; however, 'view access capability' could be more clearly defined. For example, specifying the aspects of view access expected (e.g., read, search, filter) would improve clarity.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The requirement is acceptable in spelling and capitalization; however, it could be improved by specifying what 'view access capability' entails. Defining 'authorized users' and providing clarity on what access details fall under 'view' would further enhance verifiability.</t>
+          <t>The requirement has correct spelling and capitalization. It uses 'authorized' consistently and does not contain any ambiguous terms. No improvement needed.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The requirement is punctuated correctly, providing clarity. However, the phrase "view access capability" could be more specific by defining what "view access" entails. A glossary reference for "authorized users" should also be included to ensure clarity.</t>
+          <t>This requirement uses correct punctuation; however, the sentence structure is somewhat informal. Consider revising for clarity by specifying what "view access capability" entails.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The requirement is clear but does not utilize any logical expression; since it is a singular thought, it does not require improvement. No ambiguity is present.</t>
+          <t>The requirement is clear and follows a singular thought. However, it lacks logical expressions that could clarify any conditions under which view access is granted. For improvement, it can be rephrased to include conditions, e.g., "The Disputes System shall provide view access capability for authorized users who meet [specific criteria]."</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>The requirement does not use the word not, so it is clear, verifiable, and aligns with the positive framing encouraged by the context. However, to enhance clarity, specify what "view access capability" entails.</t>
+          <t>The requirement is clear and straightforward. It uses positive language and does not include the word "not." It effectively states what the system shall do, making it verifiable.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>The requirement is acceptable as it does not use the oblique symbol. However, it could be improved by explicitly defining what constitutes "view access capability" to prevent ambiguity.</t>
+          <t>The use of the term "access capability" could introduce ambiguity. It is recommended to specify the exact nature of the access, e.g., "view only" or "view and download."</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The requirement is somewhat ambiguous regarding what constitutes "view access capability." It should specify the types of data or sections of the application that authorized users can view to eliminate any assumptions about the extent of access. The grammar is correct; however, the term "access capability" may cause ambiguity. It would improve clarity to specify what "view access" entails, such as which data can be viewed or any constraints that might apply. The requirement is acceptable in spelling and capitalization; however, it could be improved by specifying what 'view access capability' entails. Defining 'authorized users' and providing clarity on what access details fall under 'view' would further enhance verifiability. The requirement is punctuated correctly, providing clarity. However, the phrase "view access capability" could be more specific by defining what "view access" entails. A glossary reference for "authorized users" should also be included to ensure clarity. The requirement is clear but does not utilize any logical expression; since it is a singular thought, it does not require improvement. No ambiguity is present. The requirement does not use the word not, so it is clear, verifiable, and aligns with the positive framing encouraged by the context. However, to enhance clarity, specify what "view access capability" entails. The requirement is acceptable as it does not use the oblique symbol. However, it could be improved by explicitly defining what constitutes "view access capability" to prevent ambiguity.</t>
+          <t>The term 'view access capability' may be ambiguous. It would benefit from specifying the exact nature of access (e.g., read-only access, access to specific data elements). Additionally, the phrase 'authorized users' should be clearly defined to avoid varied interpretations regarding who qualifies as 'authorized'. The requirement uses correct grammar; however, 'view access capability' could be more clearly defined. For example, specifying the aspects of view access expected (e.g., read, search, filter) would improve clarity. The requirement has correct spelling and capitalization. It uses 'authorized' consistently and does not contain any ambiguous terms. No improvement needed. This requirement uses correct punctuation; however, the sentence structure is somewhat informal. Consider revising for clarity by specifying what "view access capability" entails. The requirement is clear and follows a singular thought. However, it lacks logical expressions that could clarify any conditions under which view access is granted. For improvement, it can be rephrased to include conditions, e.g., "The Disputes System shall provide view access capability for authorized users who meet [specific criteria]." The requirement is clear and straightforward. It uses positive language and does not include the word "not." It effectively states what the system shall do, making it verifiable. The use of the term "access capability" could introduce ambiguity. It is recommended to specify the exact nature of the access, e.g., "view only" or "view and download."</t>
         </is>
       </c>
     </row>
@@ -541,42 +541,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Similar to the previous requirement, the term "update access capability" is vague. The requirement should clearly define what types of updates users are permitted to make, e.g., updates to user profiles, dispute details, etc.</t>
+          <t>Similar to Requirement A, the term 'update access capability' lacks clarity. It should specify what constitutes an 'update' and potentially define 'authorized users'. The requirement should eliminate ambiguity about the actions permissible by the authorized users.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The grammar is correct; similar to the previous requirement, "update access capability" is vague. It is recommended to clarify which updates can be made and under what conditions to prevent misinterpretation.</t>
+          <t>The requirement uses correct grammar, but similar to the previous statement, 'update access capability' should be better defined. Clarifying the scope of updates allowed (e.g., what data can be updated) would enhance understanding.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Similar to Requirement A, this requirement is free from spelling errors. It would benefit from clarification on what 'update access capability' includes and how 'authorized users' are defined for better validation.</t>
+          <t>The requirement has correct spelling and capitalization. It uses 'authorized' consistently and does not contain any ambiguous terms. No improvement needed.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Similar to Requirement A, the punctuation is correct. The phrase "update access capability" lacks specificity and could benefit from clear definitions. A glossary reference for "authorized users" should also be included.</t>
+          <t>This requirement also uses correct punctuation. Similar to the first requirement, consider outlining what "update access capability" includes for greater clarity.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Similar to Requirement A, this requirement is clear and singular. It does not incorporate logical expressions and does not need improvement as it does not present ambiguity.</t>
+          <t>Similar to Requirement A, this requirement is clear but could benefit from specifying conditions that define "authorized users." Logical expressions could clarify the criteria for modification rights, e.g., "The Disputes System shall provide update access capability for authorized users who fulfill [specific conditions]."</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>This requirement does not contain the word not and maintains a positive statement. To improve this requirement, consider defining the types of updates allowed for clarity and completeness.</t>
+          <t>This requirement is also clearly defined and uses positive language. There is no use of "not," and the requirement can be verified.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Similar to the previous requirement, this one does not contain the oblique symbol. However, clarification on what "update access capability" includes would enhance precision.</t>
+          <t>Similar to requirement A, "update access capability" is ambiguous. It is advised to clarify what kind of updates are permitted, such as "update transaction status" or "modify user information."</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Similar to the previous requirement, the term "update access capability" is vague. The requirement should clearly define what types of updates users are permitted to make, e.g., updates to user profiles, dispute details, etc. The grammar is correct; similar to the previous requirement, "update access capability" is vague. It is recommended to clarify which updates can be made and under what conditions to prevent misinterpretation. Similar to Requirement A, this requirement is free from spelling errors. It would benefit from clarification on what 'update access capability' includes and how 'authorized users' are defined for better validation. Similar to Requirement A, the punctuation is correct. The phrase "update access capability" lacks specificity and could benefit from clear definitions. A glossary reference for "authorized users" should also be included. Similar to Requirement A, this requirement is clear and singular. It does not incorporate logical expressions and does not need improvement as it does not present ambiguity. This requirement does not contain the word not and maintains a positive statement. To improve this requirement, consider defining the types of updates allowed for clarity and completeness. Similar to the previous requirement, this one does not contain the oblique symbol. However, clarification on what "update access capability" includes would enhance precision.</t>
+          <t>Similar to Requirement A, the term 'update access capability' lacks clarity. It should specify what constitutes an 'update' and potentially define 'authorized users'. The requirement should eliminate ambiguity about the actions permissible by the authorized users. The requirement uses correct grammar, but similar to the previous statement, 'update access capability' should be better defined. Clarifying the scope of updates allowed (e.g., what data can be updated) would enhance understanding. The requirement has correct spelling and capitalization. It uses 'authorized' consistently and does not contain any ambiguous terms. No improvement needed. This requirement also uses correct punctuation. Similar to the first requirement, consider outlining what "update access capability" includes for greater clarity. Similar to Requirement A, this requirement is clear but could benefit from specifying conditions that define "authorized users." Logical expressions could clarify the criteria for modification rights, e.g., "The Disputes System shall provide update access capability for authorized users who fulfill [specific conditions]." This requirement is also clearly defined and uses positive language. There is no use of "not," and the requirement can be verified. Similar to requirement A, "update access capability" is ambiguous. It is advised to clarify what kind of updates are permitted, such as "update transaction status" or "modify user information."</t>
         </is>
       </c>
     </row>
@@ -591,42 +591,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>This requirement is complex and may be interpreted in multiple ways, particularly regarding "disputable transactions" and the mechanics of initiating a dispute. It should clarify the criteria for disputable transactions and detail the steps for initiating a dispute to avoid confusion on the necessary actions and features of the user interface.</t>
+          <t>This requirement is somewhat lengthy and complex, which might lead to differing interpretations. The phrase 'disputable transactions (based on the age of the transaction)' should define what age qualifies a transaction as disputable. Furthermore, the terms 'ticket retrieval request' and 'chargeback notification' need clarification on what each process entails.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The sentence structure is correct, but it is overly complex. Breaking it into two sentences for better readability is advisable. Additionally, defining “disputable transactions” and the exact meanings of "ticket retrieval request" and "chargeback notification" will enhance clarity.</t>
+          <t>The requirement contains complex grammatical structure which could lead to ambiguity, particularly with 'from a user interface'. This should be rephrased for clarity, potentially splitting it into simpler sentences. Additionally, defining 'disputable transactions' and clarifying the user interface's characteristics would improve the requirement.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The spelling is correct, but the phrase 'disputable transactions' could be specified better. The meaning of 'age of the transaction' should be clarified. Additionally, consider defining 'user interface' to ensure all stakeholders have a common understanding.</t>
+          <t>The requirement has correct spelling but is quite complex and lengthy. Consider breaking it into multiple requirements for clarity and to avoid potential ambiguity. Ensure consistent terminology (e.g., 'users' vs. 'the user').</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>This requirement contains multiple clauses that could benefit from improved punctuation for clarity. The use of parentheses is appropriate, but separating clauses with punctuation could help prevent confusion. Consider revising for clearer structure. Also, a definition for "disputable transactions" should be included.</t>
+          <t>This requirement contains a complex structure with several clauses. The parentheses around "based on the age of the transaction" may create ambiguity regarding the relationship between the age of the transaction and the selection of disputable transactions. Consider rephrasing to clarify: e.g., "The Disputes System must allow users to select disputable transactions from a user interface, where disputable is defined based on the age of the transaction, and initiate a dispute on the selected transaction."</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>This requirement contains multiple thoughts connected by "and", which creates ambiguity. It could be improved by breaking it into two separate requirements or restructuring it to use logical expressions, for example, "The Disputes System must allow users to [select disputable transactions based on the age of the transaction] AND [initiate a dispute (ticket retrieval request or chargeback notification) on the selected transaction]".</t>
+          <t>This requirement includes multiple actions combined with "and," which introduces ambiguity regarding the scope of conditions. It should be separated into distinct requirements or use logical expressions. A better formulation would be: "The Disputes System must allow users to select disputable transactions based on [age criteria] and must allow initiation of a dispute [as a ticket retrieval request OR chargeback notification]."</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>This requirement is stated positively and allows for verification. However, the term "disputable transactions" could be better defined, and it may be beneficial to break this requirement into smaller, more manageable requirements for clarity and verifiability.</t>
+          <t>The requirement is well-formulated and uses affirmative language. It does not include the word "not," which aids in its verifiability. However, it could benefit from splitting into two distinct requirements: one for selecting transactions and another for initiating a dispute to enhance clarity.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>This requirement includes the oblique symbol in "ticket retrieval request or chargeback notification," leading to ambiguity about what actions users can take. It would be beneficial to split this requirement into two separate ones to clarify user actions: one for initiating a ticket retrieval request and another for chargeback notification.</t>
+          <t>The term "(ticket retrieval request or chargeback notification)" employs an oblique symbol. It is recommended to specify these as two distinct requirements or clarify the conditions under which both actions can occur instead of using "or."</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>This requirement is complex and may be interpreted in multiple ways, particularly regarding "disputable transactions" and the mechanics of initiating a dispute. It should clarify the criteria for disputable transactions and detail the steps for initiating a dispute to avoid confusion on the necessary actions and features of the user interface. The sentence structure is correct, but it is overly complex. Breaking it into two sentences for better readability is advisable. Additionally, defining “disputable transactions” and the exact meanings of "ticket retrieval request" and "chargeback notification" will enhance clarity. The spelling is correct, but the phrase 'disputable transactions' could be specified better. The meaning of 'age of the transaction' should be clarified. Additionally, consider defining 'user interface' to ensure all stakeholders have a common understanding. This requirement contains multiple clauses that could benefit from improved punctuation for clarity. The use of parentheses is appropriate, but separating clauses with punctuation could help prevent confusion. Consider revising for clearer structure. Also, a definition for "disputable transactions" should be included. This requirement contains multiple thoughts connected by "and", which creates ambiguity. It could be improved by breaking it into two separate requirements or restructuring it to use logical expressions, for example, "The Disputes System must allow users to [select disputable transactions based on the age of the transaction] AND [initiate a dispute (ticket retrieval request or chargeback notification) on the selected transaction]". This requirement is stated positively and allows for verification. However, the term "disputable transactions" could be better defined, and it may be beneficial to break this requirement into smaller, more manageable requirements for clarity and verifiability. This requirement includes the oblique symbol in "ticket retrieval request or chargeback notification," leading to ambiguity about what actions users can take. It would be beneficial to split this requirement into two separate ones to clarify user actions: one for initiating a ticket retrieval request and another for chargeback notification.</t>
+          <t>This requirement is somewhat lengthy and complex, which might lead to differing interpretations. The phrase 'disputable transactions (based on the age of the transaction)' should define what age qualifies a transaction as disputable. Furthermore, the terms 'ticket retrieval request' and 'chargeback notification' need clarification on what each process entails. The requirement contains complex grammatical structure which could lead to ambiguity, particularly with 'from a user interface'. This should be rephrased for clarity, potentially splitting it into simpler sentences. Additionally, defining 'disputable transactions' and clarifying the user interface's characteristics would improve the requirement. The requirement has correct spelling but is quite complex and lengthy. Consider breaking it into multiple requirements for clarity and to avoid potential ambiguity. Ensure consistent terminology (e.g., 'users' vs. 'the user'). This requirement contains a complex structure with several clauses. The parentheses around "based on the age of the transaction" may create ambiguity regarding the relationship between the age of the transaction and the selection of disputable transactions. Consider rephrasing to clarify: e.g., "The Disputes System must allow users to select disputable transactions from a user interface, where disputable is defined based on the age of the transaction, and initiate a dispute on the selected transaction." This requirement includes multiple actions combined with "and," which introduces ambiguity regarding the scope of conditions. It should be separated into distinct requirements or use logical expressions. A better formulation would be: "The Disputes System must allow users to select disputable transactions based on [age criteria] and must allow initiation of a dispute [as a ticket retrieval request OR chargeback notification]." The requirement is well-formulated and uses affirmative language. It does not include the word "not," which aids in its verifiability. However, it could benefit from splitting into two distinct requirements: one for selecting transactions and another for initiating a dispute to enhance clarity. The term "(ticket retrieval request or chargeback notification)" employs an oblique symbol. It is recommended to specify these as two distinct requirements or clarify the conditions under which both actions can occur instead of using "or."</t>
         </is>
       </c>
     </row>
@@ -641,42 +641,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The phrase "multiple transactions that belong to a single merchant" could be misconstrued. Clarifying whether it refers to transactions grouped specifically by the merchant’s ID or other criteria would help eliminate ambiguity. A more precise definition would lead to clearer understanding and implementation.</t>
+          <t>The requirement is somewhat clear but can benefit from defining what 'multiple transactions' entails, and what constitutes a 'single dispute case'. Additionally, it can clarify the limitations or conditions under which transactions from a single merchant can be grouped.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The grammar is correct; however, the term "single dispute case" requires clarification. It is recommended to explicitly define what constitutes a single dispute and how it relates to multiple transactions to avoid ambiguity.</t>
+          <t>The requirement is grammatically correct, but 'initiate a single dispute case on multiple transactions' may cause confusion regarding whether it's a single case for different transactions or multiple cases for one transaction. Clarifying this distinction is recommended.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The spelling and capitalization are correct. However, the term 'single merchant' should be defined to clarify what conditions qualify a merchant as 'single'. Furthermore, additional context on how the 'dispute case' operates can improve understanding.</t>
+          <t>The requirement has correct spelling and capitalization. However, it could be improved for clarity by specifying what constitutes 'belonging' to a single merchant. Consider revising to eliminate any ambiguity regarding 'single dispute case'.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>While the punctuation is generally correct, the phrase "the user the ability to initiate" could be more clearly stated as "the ability for the user to initiate." Additionally, consideration should be given to defining "dispute case" and "single merchant" to avoid ambiguity.</t>
+          <t>This requirement uses correct punctuation; however, the term "the user" could be made more specific (e.g., "an authorized user") to improve clarity. Additionally, consider breaking this complex requirement into simpler components. Example: "The Disputes System must allow an authorized user to initiate a single dispute case. This case may involve multiple transactions that belong to a single merchant."</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>This requirement is singular and effectively communicates a clear need without the use of logical expressions. It does not require changes as it does not introduce ambiguity.</t>
+          <t>This requirement is straightforward but could improve clarity by explicitly defining what constitutes a "single dispute case" and "multiple transactions." Introducing logical expressions may also enhance it, e.g., "The Disputes System must allow the user to initiate a single dispute case on multiple transactions belonging to [a single merchant, provided the transactions meet certain criteria]."</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>This requirement is stated positively and avoids the use of not. Consider elaborating on what constitutes a "dispute case" and the limitations, if any, on the number of transactions to ensure clarity and verifiability.</t>
+          <t>This requirement is clear and uses positive language without including "not". However, more specificity could improve it, such as defining the criteria for what constitutes a "single dispute case."</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>The requirement is clear and does not include the oblique symbol. However, it could be made more precise by defining what "multiple transactions" entails.</t>
+          <t>This requirement is clear and does not use the oblique symbol, thus meeting the guideline. No improvements are necessary.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>The phrase "multiple transactions that belong to a single merchant" could be misconstrued. Clarifying whether it refers to transactions grouped specifically by the merchant’s ID or other criteria would help eliminate ambiguity. A more precise definition would lead to clearer understanding and implementation. The grammar is correct; however, the term "single dispute case" requires clarification. It is recommended to explicitly define what constitutes a single dispute and how it relates to multiple transactions to avoid ambiguity. The spelling and capitalization are correct. However, the term 'single merchant' should be defined to clarify what conditions qualify a merchant as 'single'. Furthermore, additional context on how the 'dispute case' operates can improve understanding. While the punctuation is generally correct, the phrase "the user the ability to initiate" could be more clearly stated as "the ability for the user to initiate." Additionally, consideration should be given to defining "dispute case" and "single merchant" to avoid ambiguity. This requirement is singular and effectively communicates a clear need without the use of logical expressions. It does not require changes as it does not introduce ambiguity. This requirement is stated positively and avoids the use of not. Consider elaborating on what constitutes a "dispute case" and the limitations, if any, on the number of transactions to ensure clarity and verifiability. The requirement is clear and does not include the oblique symbol. However, it could be made more precise by defining what "multiple transactions" entails.</t>
+          <t>The requirement is somewhat clear but can benefit from defining what 'multiple transactions' entails, and what constitutes a 'single dispute case'. Additionally, it can clarify the limitations or conditions under which transactions from a single merchant can be grouped. The requirement is grammatically correct, but 'initiate a single dispute case on multiple transactions' may cause confusion regarding whether it's a single case for different transactions or multiple cases for one transaction. Clarifying this distinction is recommended. The requirement has correct spelling and capitalization. However, it could be improved for clarity by specifying what constitutes 'belonging' to a single merchant. Consider revising to eliminate any ambiguity regarding 'single dispute case'. This requirement uses correct punctuation; however, the term "the user" could be made more specific (e.g., "an authorized user") to improve clarity. Additionally, consider breaking this complex requirement into simpler components. Example: "The Disputes System must allow an authorized user to initiate a single dispute case. This case may involve multiple transactions that belong to a single merchant." This requirement is straightforward but could improve clarity by explicitly defining what constitutes a "single dispute case" and "multiple transactions." Introducing logical expressions may also enhance it, e.g., "The Disputes System must allow the user to initiate a single dispute case on multiple transactions belonging to [a single merchant, provided the transactions meet certain criteria]." This requirement is clear and uses positive language without including "not". However, more specificity could improve it, such as defining the criteria for what constitutes a "single dispute case." This requirement is clear and does not use the oblique symbol, thus meeting the guideline. No improvements are necessary.</t>
         </is>
       </c>
     </row>
